--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\AssetsCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5748EE7-4921-4DC8-80AC-2F979742F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BACF32C-890A-4DB0-B8CE-3619057D6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Columns" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="419">
   <si>
     <t>Name</t>
   </si>
@@ -296,9 +297,6 @@
   </si>
   <si>
     <t>OracleERP_URL</t>
-  </si>
-  <si>
-    <t>Input form closed</t>
   </si>
   <si>
     <t>Oracle ERP Browser failed to launch</t>
@@ -827,18 +825,6 @@
     <t>Querying data</t>
   </si>
   <si>
-    <t>Entering Main Tab fields</t>
-  </si>
-  <si>
-    <t>Log_FundDistributionsMainTabEntry</t>
-  </si>
-  <si>
-    <t>Log_IncrementIndex</t>
-  </si>
-  <si>
-    <t>Log_ValidateFundDistributionField</t>
-  </si>
-  <si>
     <t>ColName_ManagingUnit</t>
   </si>
   <si>
@@ -846,9 +832,6 @@
   </si>
   <si>
     <t>Document Number doesn't Exists while querying</t>
-  </si>
-  <si>
-    <t>Validating Entered Fund Distribution field</t>
   </si>
   <si>
     <t>Process finished succesfully, please check Mail.</t>
@@ -861,9 +844,6 @@
   </si>
   <si>
     <t>End_MessageBox_SuccessText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index Incremented to - </t>
   </si>
   <si>
     <t>TimeOut_PaymentMethodsWindow</t>
@@ -927,30 +907,6 @@
   </si>
   <si>
     <t>Receipts Window Not Displayed</t>
-  </si>
-  <si>
-    <t>Log_NavigateToReceipts</t>
-  </si>
-  <si>
-    <t>Log_NavigateToReceiptsSuccess</t>
-  </si>
-  <si>
-    <t>Navigating to Receipts</t>
-  </si>
-  <si>
-    <t>Navigating to Receipts- Success</t>
-  </si>
-  <si>
-    <t>Log_ReOpenReceiptsWindow</t>
-  </si>
-  <si>
-    <t>Log_ReOpenReceiptsWindowSuccess</t>
-  </si>
-  <si>
-    <t>Reopening Receipts window Started</t>
-  </si>
-  <si>
-    <t>Receipts Window Reopened</t>
   </si>
   <si>
     <t>Fiscal Year</t>
@@ -1249,12 +1205,90 @@
   <si>
     <t>BRE_ColumnError</t>
   </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>TimeOut_ActivitiesButton</t>
+  </si>
+  <si>
+    <t>Log_NavigateToAssetWorkbench</t>
+  </si>
+  <si>
+    <t>Navigating to Asset Workbench</t>
+  </si>
+  <si>
+    <t>Log_NavigateToAssetWorkbenchSuccess</t>
+  </si>
+  <si>
+    <t>Navigating to Asset Workbench- Success</t>
+  </si>
+  <si>
+    <t>Log_OpenAssetWorkbench</t>
+  </si>
+  <si>
+    <t>Log_OpenAssetWorkbenchSuccess</t>
+  </si>
+  <si>
+    <t>Opening Asset Workbench</t>
+  </si>
+  <si>
+    <t>Opening Asset Workbench - Success</t>
+  </si>
+  <si>
+    <t>Log_EnterAssetDetails</t>
+  </si>
+  <si>
+    <t>Entering Asset Details</t>
+  </si>
+  <si>
+    <t>Log_EnterAssetDetailsSuccess</t>
+  </si>
+  <si>
+    <t>Entering Asset Details - Success</t>
+  </si>
+  <si>
+    <t>Log_EnterBookDetails</t>
+  </si>
+  <si>
+    <t>Entering Book Details</t>
+  </si>
+  <si>
+    <t>Log_EnterBookDetailsSuccess</t>
+  </si>
+  <si>
+    <t>Entering Book Details - Success</t>
+  </si>
+  <si>
+    <t>Log_EnterAssignments</t>
+  </si>
+  <si>
+    <t>Entering Assignments</t>
+  </si>
+  <si>
+    <t>Log_EnterAssignmentsSuccess</t>
+  </si>
+  <si>
+    <t>Entering Assignments - Success</t>
+  </si>
+  <si>
+    <t>Log_EnterExpenseAccount</t>
+  </si>
+  <si>
+    <t>Log_EnterExpenseAccountSuccess</t>
+  </si>
+  <si>
+    <t>Entering Expense Account</t>
+  </si>
+  <si>
+    <t>Entering Expense Account - Success</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1274,6 +1308,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1300,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1321,6 +1362,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16400"/>
+  <dimension ref="A1:Z16409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1693,7 +1735,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1743,7 +1785,7 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -1776,31 +1818,31 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>3</v>
@@ -1809,346 +1851,346 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
@@ -2157,74 +2199,74 @@
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
@@ -2237,7 +2279,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B74" s="2">
         <v>500</v>
@@ -2248,7 +2290,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B75" s="2">
         <v>500</v>
@@ -2259,7 +2301,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
@@ -2270,7 +2312,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B77" s="2">
         <v>500</v>
@@ -2281,7 +2323,7 @@
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2">
         <v>500</v>
@@ -2292,7 +2334,7 @@
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B79" s="2">
         <v>500</v>
@@ -2303,7 +2345,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
@@ -2314,7 +2356,7 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B81" s="2">
         <v>500</v>
@@ -2337,59 +2379,59 @@
     </row>
     <row r="85" spans="1:3" ht="14.5">
       <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
         <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.5">
       <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.5">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.5">
       <c r="A89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.5">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
         <v>125</v>
-      </c>
-      <c r="B92" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
@@ -2397,7 +2439,7 @@
         <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2406,7 +2448,7 @@
         <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
@@ -2414,16 +2456,16 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="98" spans="1:2" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1">
@@ -2439,7 +2481,7 @@
         <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1">
@@ -2460,704 +2502,653 @@
     </row>
     <row r="105" spans="1:2" ht="14.5">
       <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
         <v>147</v>
-      </c>
-      <c r="B105" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.5">
       <c r="A106" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s">
         <v>157</v>
-      </c>
-      <c r="B106" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.5">
       <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
         <v>218</v>
-      </c>
-      <c r="B107" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.5">
       <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" t="s">
         <v>222</v>
-      </c>
-      <c r="B108" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.5">
       <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
         <v>220</v>
-      </c>
-      <c r="B109" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.5">
       <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
         <v>224</v>
-      </c>
-      <c r="B110" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.5">
       <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
         <v>226</v>
-      </c>
-      <c r="B111" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.5">
       <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
         <v>228</v>
-      </c>
-      <c r="B112" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.5">
       <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
         <v>139</v>
-      </c>
-      <c r="B113" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.5">
       <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
         <v>141</v>
-      </c>
-      <c r="B114" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.5">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.5">
       <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
         <v>143</v>
-      </c>
-      <c r="B116" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.5">
       <c r="A117" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.5">
       <c r="A118" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="B122" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.5">
       <c r="A123" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
         <v>231</v>
-      </c>
-      <c r="B123" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.5">
       <c r="A124" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.5">
       <c r="A125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" t="s">
         <v>261</v>
-      </c>
-      <c r="B125" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.5">
       <c r="A126" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.5">
       <c r="A127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" t="s">
         <v>265</v>
-      </c>
-      <c r="B127" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.5">
       <c r="A128" s="2" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="14.5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.5">
       <c r="A129" s="2" t="s">
-        <v>269</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="14.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.5">
       <c r="A130" s="2" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="14.5">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A132" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.5">
+      <c r="A131" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.5">
+      <c r="A132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.5">
+      <c r="A133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14.5">
+      <c r="A134" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B134" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14.5">
+      <c r="A135" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B135" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14.5">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" ht="14.5">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" ht="14.5">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A140" t="s">
         <v>87</v>
       </c>
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A133" t="s">
+      <c r="B140" t="s">
         <v>93</v>
       </c>
-      <c r="B133" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A134" t="s">
+    </row>
+    <row r="141" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A141" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A142" t="s">
         <v>88</v>
       </c>
-      <c r="B134" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A135" t="s">
+      <c r="B142" t="s">
         <v>102</v>
       </c>
-      <c r="B135" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A136" t="s">
-        <v>106</v>
-      </c>
-      <c r="B136" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A137" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A138" t="s">
-        <v>299</v>
-      </c>
-      <c r="B138" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A139" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
         <v>244</v>
       </c>
-      <c r="B139" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="8"/>
-    </row>
-    <row r="141" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A141" t="s">
-        <v>69</v>
-      </c>
-      <c r="B141" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C141" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A142" t="s">
-        <v>70</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A143" t="s">
-        <v>72</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A144" t="s">
-        <v>99</v>
-      </c>
-      <c r="B144" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A145" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145" s="5">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="14.5"/>
+    </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1">
       <c r="A147" t="s">
-        <v>90</v>
-      </c>
-      <c r="B147" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>243</v>
+      </c>
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B148" s="8"/>
+    </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A149" t="s">
-        <v>107</v>
-      </c>
-      <c r="B149" t="s">
-        <v>96</v>
-      </c>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1">
       <c r="A150" t="s">
-        <v>95</v>
-      </c>
-      <c r="B150" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>69</v>
+      </c>
+      <c r="B150" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C150" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A151" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1">
       <c r="A152" t="s">
-        <v>109</v>
-      </c>
-      <c r="B152" t="s">
-        <v>112</v>
+        <v>72</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1">
       <c r="A153" t="s">
-        <v>115</v>
-      </c>
-      <c r="B153" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="B153" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.5">
       <c r="A154" t="s">
-        <v>110</v>
-      </c>
-      <c r="B154" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A155" t="s">
-        <v>116</v>
-      </c>
-      <c r="B155" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A157" t="s">
-        <v>236</v>
-      </c>
-      <c r="B157">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>71</v>
-      </c>
-    </row>
+        <v>99</v>
+      </c>
+      <c r="B154" s="5">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="156" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="158" spans="1:3" ht="14.25" customHeight="1">
       <c r="A158" t="s">
-        <v>113</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="B158" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1">
       <c r="A159" t="s">
-        <v>114</v>
-      </c>
-      <c r="B159">
-        <v>40000</v>
-      </c>
-      <c r="C159" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B160" s="5"/>
-    </row>
+        <v>94</v>
+      </c>
+      <c r="B159" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="161" spans="1:3" ht="14.25" customHeight="1">
       <c r="A161" t="s">
-        <v>104</v>
-      </c>
-      <c r="B161">
-        <v>30000</v>
-      </c>
-      <c r="C161" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="B161" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1">
       <c r="A162" t="s">
-        <v>101</v>
-      </c>
-      <c r="B162">
-        <v>30000</v>
-      </c>
-      <c r="C162" t="s">
-        <v>71</v>
+        <v>114</v>
+      </c>
+      <c r="B162" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>105</v>
-      </c>
-      <c r="B163">
-        <v>60000</v>
-      </c>
-      <c r="C163" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="B163" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B164" s="5"/>
-    </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A165" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165">
-        <v>2000</v>
-      </c>
-      <c r="C165" t="s">
-        <v>71</v>
-      </c>
-    </row>
+      <c r="A164" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="169" spans="1:3" ht="15" customHeight="1">
-      <c r="A169" t="s">
-        <v>74</v>
-      </c>
-      <c r="B169">
-        <v>2000</v>
-      </c>
-      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A168" t="s">
+        <v>113</v>
+      </c>
+      <c r="B168">
+        <v>40000</v>
+      </c>
+      <c r="C168" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1">
       <c r="A170" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B170">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="17.5" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="173" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A173" t="s">
-        <v>145</v>
-      </c>
-      <c r="B173">
-        <v>3000</v>
-      </c>
-      <c r="C173" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A172" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172">
+        <v>60000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A174" t="s">
+        <v>73</v>
+      </c>
+      <c r="B174">
+        <v>2000</v>
+      </c>
+      <c r="C174" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1">
       <c r="A175" t="s">
-        <v>119</v>
-      </c>
-      <c r="B175" t="s">
-        <v>394</v>
+        <v>75</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B176" s="5"/>
-    </row>
-    <row r="177" spans="1:3" ht="14" customHeight="1">
-      <c r="A177" t="s">
-        <v>120</v>
-      </c>
-      <c r="B177">
+      <c r="A176" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176">
         <v>1</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C176" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="179" spans="1:3" ht="14.25" customHeight="1">
+    <row r="178" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A178" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178">
+        <v>2000</v>
+      </c>
+      <c r="C178" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17.5" customHeight="1">
       <c r="A179" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B179">
-        <v>60000</v>
-      </c>
-      <c r="C179" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="14.25" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17.5" customHeight="1">
       <c r="A180" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B180">
-        <v>60000</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A181" t="s">
-        <v>130</v>
-      </c>
-      <c r="B181">
-        <v>60000</v>
-      </c>
-      <c r="C181" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="16" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1">
       <c r="A182" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="B182">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="C182" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A183" t="s">
-        <v>255</v>
-      </c>
-      <c r="B183">
-        <v>100</v>
-      </c>
-      <c r="C183" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="14.5" customHeight="1">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1">
       <c r="A184" t="s">
-        <v>256</v>
-      </c>
-      <c r="B184">
-        <v>100</v>
-      </c>
-      <c r="C184" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A185" t="s">
-        <v>257</v>
-      </c>
-      <c r="B185">
-        <v>100</v>
-      </c>
-      <c r="C185" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.5" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="B184" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14" customHeight="1">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="B186">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A187" t="s">
-        <v>259</v>
-      </c>
-      <c r="B187">
-        <v>100</v>
-      </c>
-      <c r="C187" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="14.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1">
       <c r="A188" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="B188">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="C188" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14.5" customHeight="1">
+    <row r="189" spans="1:3" ht="14.25" customHeight="1">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="B189">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="C189" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.5" customHeight="1">
+    <row r="190" spans="1:3" ht="16" customHeight="1">
       <c r="A190" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="B190">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="C190" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.5" customHeight="1">
       <c r="A191" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="B191">
         <v>100</v>
       </c>
       <c r="C191" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.5" customHeight="1">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="B192">
         <v>100</v>
@@ -3168,7 +3159,7 @@
     </row>
     <row r="193" spans="1:3" ht="14.5" customHeight="1">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="B193">
         <v>100</v>
@@ -3179,7 +3170,7 @@
     </row>
     <row r="194" spans="1:3" ht="14.5" customHeight="1">
       <c r="A194" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B194">
         <v>100</v>
@@ -3190,7 +3181,7 @@
     </row>
     <row r="195" spans="1:3" ht="14.5" customHeight="1">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="B195">
         <v>100</v>
@@ -3201,7 +3192,7 @@
     </row>
     <row r="196" spans="1:3" ht="14.5" customHeight="1">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="B196">
         <v>100</v>
@@ -3212,7 +3203,7 @@
     </row>
     <row r="197" spans="1:3" ht="14.5" customHeight="1">
       <c r="A197" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B197">
         <v>100</v>
@@ -3223,7 +3214,7 @@
     </row>
     <row r="198" spans="1:3" ht="14.5" customHeight="1">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B198">
         <v>100</v>
@@ -3232,546 +3223,624 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14.5" customHeight="1">
+    <row r="199" spans="1:3" ht="15" customHeight="1">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B199">
         <v>100</v>
       </c>
       <c r="C199" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.5" customHeight="1">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B200">
         <v>100</v>
       </c>
       <c r="C200" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A201" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201">
+        <v>100</v>
+      </c>
+      <c r="C201" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="202" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="202" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A202" t="s">
+        <v>172</v>
+      </c>
+      <c r="B202">
+        <v>100</v>
+      </c>
+      <c r="C202" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="203" spans="1:3" ht="14.5" customHeight="1">
       <c r="A203" t="s">
-        <v>171</v>
-      </c>
-      <c r="B203" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="B203">
+        <v>100</v>
+      </c>
+      <c r="C203" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.5" customHeight="1">
       <c r="A204" t="s">
-        <v>175</v>
-      </c>
-      <c r="B204" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="B204">
+        <v>100</v>
+      </c>
+      <c r="C204" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.5" customHeight="1">
       <c r="A205" t="s">
-        <v>178</v>
-      </c>
-      <c r="B205" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="B205">
+        <v>100</v>
+      </c>
+      <c r="C205" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.5" customHeight="1">
       <c r="A206" t="s">
-        <v>181</v>
-      </c>
-      <c r="B206" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="B206">
+        <v>100</v>
+      </c>
+      <c r="C206" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.5" customHeight="1">
       <c r="A207" t="s">
-        <v>184</v>
-      </c>
-      <c r="B207" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="B207">
+        <v>100</v>
+      </c>
+      <c r="C207" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.5" customHeight="1">
       <c r="A208" t="s">
+        <v>191</v>
+      </c>
+      <c r="B208">
+        <v>100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A209" t="s">
+        <v>194</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+      <c r="C209" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="211" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="212" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A212" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A213" t="s">
+        <v>174</v>
+      </c>
+      <c r="B213" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A214" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A215" t="s">
+        <v>180</v>
+      </c>
+      <c r="B215" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A216" t="s">
+        <v>183</v>
+      </c>
+      <c r="B216" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A217" t="s">
+        <v>186</v>
+      </c>
+      <c r="B217" t="s">
         <v>187</v>
       </c>
-      <c r="B208" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A209" t="s">
+    </row>
+    <row r="218" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A218" t="s">
+        <v>189</v>
+      </c>
+      <c r="B218" t="s">
         <v>190</v>
       </c>
-      <c r="B209" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A210" t="s">
+    </row>
+    <row r="219" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A219" t="s">
+        <v>192</v>
+      </c>
+      <c r="B219" t="s">
         <v>193</v>
       </c>
-      <c r="B210" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A211" t="s">
+    </row>
+    <row r="220" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A220" t="s">
+        <v>195</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A212" t="s">
+    </row>
+    <row r="221" spans="1:3" ht="15.5" customHeight="1">
+      <c r="A221" t="s">
+        <v>252</v>
+      </c>
+      <c r="B221" t="s">
         <v>253</v>
       </c>
-      <c r="B212" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.5" customHeight="1">
-      <c r="A213" t="s">
+    </row>
+    <row r="222" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A222" t="s">
+        <v>245</v>
+      </c>
+      <c r="B222" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16" customHeight="1">
+      <c r="A223" t="s">
         <v>246</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B223" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16" customHeight="1">
+      <c r="A224" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A214" t="s">
-        <v>247</v>
-      </c>
-      <c r="B214" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="16" customHeight="1">
-      <c r="A215" t="s">
+      <c r="B224" t="s">
         <v>250</v>
       </c>
-      <c r="B215" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="16" customHeight="1">
-      <c r="A216" t="s">
-        <v>272</v>
-      </c>
-      <c r="B216" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="16" customHeight="1"/>
-    <row r="218" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="219" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A219" t="s">
+    </row>
+    <row r="225" spans="1:3" ht="16" customHeight="1">
+      <c r="A225" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="228" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A228" t="s">
+        <v>136</v>
+      </c>
+      <c r="B228" t="s">
         <v>137</v>
       </c>
-      <c r="B219" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="221" spans="1:2" ht="14.5">
-      <c r="A221" t="s">
+    </row>
+    <row r="229" spans="1:3" ht="14.5"/>
+    <row r="230" spans="1:3" ht="14.5">
+      <c r="A230" t="s">
         <v>49</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B230" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="14.5">
-      <c r="A222" t="s">
+    <row r="231" spans="1:3" ht="14.5">
+      <c r="A231" t="s">
         <v>50</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B231" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="14.5">
-      <c r="A223" t="s">
+    <row r="232" spans="1:3" ht="14.5">
+      <c r="A232" t="s">
         <v>53</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B232" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="14.5">
-      <c r="A224" t="s">
+    <row r="233" spans="1:3" ht="14.5">
+      <c r="A233" t="s">
         <v>55</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B233" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14.5"/>
-    <row r="226" spans="1:3" ht="14.5">
-      <c r="A226" t="s">
+    <row r="234" spans="1:3" ht="14.5"/>
+    <row r="235" spans="1:3" ht="14.5">
+      <c r="A235" t="s">
         <v>56</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B235" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14.5">
-      <c r="A227" t="s">
+    <row r="236" spans="1:3" ht="14.5">
+      <c r="A236" t="s">
         <v>58</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B236" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="14.5">
-      <c r="A228" t="s">
-        <v>59</v>
-      </c>
-      <c r="B228" s="5">
-        <v>60</v>
-      </c>
-      <c r="C228" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="230" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A230" t="s">
-        <v>56</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A231" t="s">
-        <v>58</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A232" t="s">
-        <v>59</v>
-      </c>
-      <c r="B232" s="5">
-        <v>60</v>
-      </c>
-      <c r="C232" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A234" t="s">
-        <v>131</v>
-      </c>
-      <c r="B234" t="s">
-        <v>161</v>
-      </c>
-      <c r="C234" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A235" t="s">
-        <v>132</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A236" t="s">
-        <v>45</v>
-      </c>
-      <c r="C236" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1">
       <c r="A237" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B237" s="5">
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="C237" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="239" spans="1:3" ht="14.25" customHeight="1">
       <c r="A239" t="s">
-        <v>133</v>
-      </c>
-      <c r="B239" t="s">
-        <v>161</v>
-      </c>
-      <c r="C239" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1">
       <c r="A240" t="s">
-        <v>134</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>396</v>
+        <v>58</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1">
       <c r="A241" t="s">
-        <v>135</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="14" customHeight="1"/>
-    <row r="243" spans="1:3" ht="15" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="B241" s="5">
+        <v>60</v>
+      </c>
+      <c r="C241" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1">
       <c r="A243" t="s">
-        <v>237</v>
-      </c>
-      <c r="B243">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="B243" t="s">
+        <v>160</v>
       </c>
       <c r="C243" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="14" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" customHeight="1">
       <c r="A244" t="s">
-        <v>238</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-      <c r="C244" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="14" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" customHeight="1">
       <c r="A245" t="s">
-        <v>239</v>
-      </c>
-      <c r="B245">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C245" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="14" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1">
       <c r="A246" t="s">
-        <v>240</v>
-      </c>
-      <c r="B246">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B246" s="5">
+        <v>60000</v>
       </c>
       <c r="C246" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="14" customHeight="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="248" spans="1:3" ht="14.25" customHeight="1">
       <c r="A248" t="s">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>160</v>
+      </c>
+      <c r="C248" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1">
       <c r="A249" t="s">
+        <v>133</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14" customHeight="1">
+      <c r="A250" t="s">
+        <v>134</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14" customHeight="1">
+      <c r="A252" t="s">
+        <v>236</v>
+      </c>
+      <c r="B252">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14" customHeight="1">
+      <c r="A253" t="s">
+        <v>237</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14" customHeight="1">
+      <c r="A254" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14" customHeight="1">
+      <c r="A255" t="s">
+        <v>239</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A257" t="s">
+        <v>272</v>
+      </c>
+      <c r="B257" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A258" t="s">
+        <v>271</v>
+      </c>
+      <c r="B258" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14" customHeight="1"/>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A261" t="s">
+        <v>273</v>
+      </c>
+      <c r="B261">
+        <v>100</v>
+      </c>
+      <c r="C261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A262" t="s">
+        <v>276</v>
+      </c>
+      <c r="B262">
+        <v>100</v>
+      </c>
+      <c r="C262" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A263" t="s">
+        <v>281</v>
+      </c>
+      <c r="B263">
+        <v>100</v>
+      </c>
+      <c r="C263" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A264" t="s">
+        <v>284</v>
+      </c>
+      <c r="B264">
+        <v>100</v>
+      </c>
+      <c r="C264" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A265" t="s">
+        <v>289</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+      <c r="C265" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A266" t="s">
+        <v>394</v>
+      </c>
+      <c r="B266">
+        <v>500</v>
+      </c>
+      <c r="C266" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" customHeight="1">
+      <c r="A269" t="s">
         <v>277</v>
       </c>
-      <c r="B249" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="251" spans="1:3" ht="14" customHeight="1"/>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A252" t="s">
+      <c r="B269" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15" customHeight="1">
+      <c r="A270" t="s">
+        <v>279</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B252">
-        <v>100</v>
-      </c>
-      <c r="C252" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A253" t="s">
+    </row>
+    <row r="271" spans="1:3" ht="15" customHeight="1">
+      <c r="A271" t="s">
         <v>283</v>
       </c>
-      <c r="B253">
-        <v>100</v>
-      </c>
-      <c r="C253" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A254" t="s">
+      <c r="B271" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15" customHeight="1">
+      <c r="A272" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A273" t="s">
+        <v>285</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B254">
-        <v>100</v>
-      </c>
-      <c r="C254" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A255" t="s">
+    </row>
+    <row r="274" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A274" t="s">
+        <v>290</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B255">
-        <v>100</v>
-      </c>
-      <c r="C255" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A256" t="s">
-        <v>296</v>
-      </c>
-      <c r="B256">
-        <v>100</v>
-      </c>
-      <c r="C256" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="259" spans="1:2" ht="15" customHeight="1">
-      <c r="A259" t="s">
-        <v>284</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1">
-      <c r="A260" t="s">
-        <v>286</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1">
-      <c r="A261" t="s">
-        <v>290</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1">
-      <c r="A262" t="s">
-        <v>293</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1">
-      <c r="A263" t="s">
-        <v>292</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A264" t="s">
-        <v>297</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B265" s="8"/>
-    </row>
-    <row r="266" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B266" s="8"/>
-    </row>
-    <row r="267" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B267" s="8"/>
-    </row>
-    <row r="268" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B268" s="8"/>
-    </row>
-    <row r="269" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B269" s="8"/>
-    </row>
-    <row r="270" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B270" s="8"/>
-    </row>
-    <row r="271" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B271" s="8"/>
-    </row>
-    <row r="272" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B272" s="8"/>
-    </row>
-    <row r="273" spans="2:2" ht="14.25" customHeight="1">
-      <c r="B273" s="8"/>
-    </row>
-    <row r="274" spans="2:2" ht="14.25" customHeight="1">
-      <c r="B274" s="8"/>
-    </row>
-    <row r="275" spans="2:2" ht="14.25" customHeight="1">
+    </row>
+    <row r="275" spans="1:2" ht="14.25" customHeight="1">
       <c r="B275" s="8"/>
     </row>
-    <row r="276" spans="2:2" ht="14.25" customHeight="1">
+    <row r="276" spans="1:2" ht="14.25" customHeight="1">
       <c r="B276" s="8"/>
     </row>
-    <row r="277" spans="2:2" ht="14.25" customHeight="1">
+    <row r="277" spans="1:2" ht="14.25" customHeight="1">
       <c r="B277" s="8"/>
     </row>
-    <row r="278" spans="2:2" ht="14.25" customHeight="1">
+    <row r="278" spans="1:2" ht="14.25" customHeight="1">
       <c r="B278" s="8"/>
     </row>
-    <row r="279" spans="2:2" ht="14.25" customHeight="1">
+    <row r="279" spans="1:2" ht="14.25" customHeight="1">
       <c r="B279" s="8"/>
     </row>
-    <row r="280" spans="2:2" ht="14.25" customHeight="1">
+    <row r="280" spans="1:2" ht="14.25" customHeight="1">
       <c r="B280" s="8"/>
     </row>
-    <row r="281" spans="2:2" ht="14.25" customHeight="1">
+    <row r="281" spans="1:2" ht="14.25" customHeight="1">
       <c r="B281" s="8"/>
     </row>
-    <row r="282" spans="2:2" ht="14.25" customHeight="1">
+    <row r="282" spans="1:2" ht="14.25" customHeight="1">
       <c r="B282" s="8"/>
     </row>
-    <row r="283" spans="2:2" ht="14.25" customHeight="1">
+    <row r="283" spans="1:2" ht="14.25" customHeight="1">
       <c r="B283" s="8"/>
     </row>
-    <row r="284" spans="2:2" ht="14.25" customHeight="1">
+    <row r="284" spans="1:2" ht="14.25" customHeight="1">
       <c r="B284" s="8"/>
     </row>
-    <row r="285" spans="2:2" ht="14.25" customHeight="1">
+    <row r="285" spans="1:2" ht="14.25" customHeight="1">
       <c r="B285" s="8"/>
     </row>
-    <row r="286" spans="2:2" ht="14.25" customHeight="1">
+    <row r="286" spans="1:2" ht="14.25" customHeight="1">
       <c r="B286" s="8"/>
     </row>
-    <row r="287" spans="2:2" ht="14.25" customHeight="1">
+    <row r="287" spans="1:2" ht="14.25" customHeight="1">
       <c r="B287" s="8"/>
     </row>
-    <row r="288" spans="2:2" ht="14.25" customHeight="1">
+    <row r="288" spans="1:2" ht="14.25" customHeight="1">
       <c r="B288" s="8"/>
     </row>
     <row r="289" spans="2:2" ht="14.25" customHeight="1">
@@ -6258,31 +6327,31 @@
     <row r="1116" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1116" s="8"/>
     </row>
-    <row r="1117" spans="2:2" ht="15" customHeight="1">
+    <row r="1117" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1117" s="8"/>
     </row>
-    <row r="1118" spans="2:2" ht="15" customHeight="1">
+    <row r="1118" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1118" s="8"/>
     </row>
-    <row r="1119" spans="2:2" ht="15" customHeight="1">
+    <row r="1119" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1119" s="8"/>
     </row>
-    <row r="1120" spans="2:2" ht="15" customHeight="1">
+    <row r="1120" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1120" s="8"/>
     </row>
-    <row r="1121" spans="2:2" ht="15" customHeight="1">
+    <row r="1121" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1121" s="8"/>
     </row>
-    <row r="1122" spans="2:2" ht="15" customHeight="1">
+    <row r="1122" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1122" s="8"/>
     </row>
-    <row r="1123" spans="2:2" ht="15" customHeight="1">
+    <row r="1123" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1123" s="8"/>
     </row>
-    <row r="1124" spans="2:2" ht="15" customHeight="1">
+    <row r="1124" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1124" s="8"/>
     </row>
-    <row r="1125" spans="2:2" ht="15" customHeight="1">
+    <row r="1125" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1125" s="8"/>
     </row>
     <row r="1126" spans="2:2" ht="15" customHeight="1">
@@ -52109,6 +52178,33 @@
     </row>
     <row r="16400" spans="2:2" ht="15" customHeight="1">
       <c r="B16400" s="8"/>
+    </row>
+    <row r="16401" spans="2:2" ht="15" customHeight="1">
+      <c r="B16401" s="8"/>
+    </row>
+    <row r="16402" spans="2:2" ht="15" customHeight="1">
+      <c r="B16402" s="8"/>
+    </row>
+    <row r="16403" spans="2:2" ht="15" customHeight="1">
+      <c r="B16403" s="8"/>
+    </row>
+    <row r="16404" spans="2:2" ht="15" customHeight="1">
+      <c r="B16404" s="8"/>
+    </row>
+    <row r="16405" spans="2:2" ht="15" customHeight="1">
+      <c r="B16405" s="8"/>
+    </row>
+    <row r="16406" spans="2:2" ht="15" customHeight="1">
+      <c r="B16406" s="8"/>
+    </row>
+    <row r="16407" spans="2:2" ht="15" customHeight="1">
+      <c r="B16407" s="8"/>
+    </row>
+    <row r="16408" spans="2:2" ht="15" customHeight="1">
+      <c r="B16408" s="8"/>
+    </row>
+    <row r="16409" spans="2:2" ht="15" customHeight="1">
+      <c r="B16409" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -52118,6 +52214,260 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CA207-C514-463D-8AD4-AD89DA25ADFE}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
@@ -52309,7 +52659,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -53287,7 +53637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\AssetsCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BACF32C-890A-4DB0-B8CE-3619057D6FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0CB87-A54F-4BF4-9A5D-6723C0B05A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="434">
   <si>
     <t>Name</t>
   </si>
@@ -759,9 +759,6 @@
     <t>SE_ErrMsg_ResponsibilityNotDisplayed</t>
   </si>
   <si>
-    <t>DOL Federal Administrator Responsibility Not Displayed</t>
-  </si>
-  <si>
     <t>BRE_FundCancellationError</t>
   </si>
   <si>
@@ -901,12 +898,6 @@
   </si>
   <si>
     <t>Entered Activity field is incorrect</t>
-  </si>
-  <si>
-    <t>SE_ErrMsg_ReceiptsWindowNotDisplayed</t>
-  </si>
-  <si>
-    <t>Receipts Window Not Displayed</t>
   </si>
   <si>
     <t>Fiscal Year</t>
@@ -1283,6 +1274,60 @@
   <si>
     <t>Entering Expense Account - Success</t>
   </si>
+  <si>
+    <t>Log_EnterAssignmentsLocationFields</t>
+  </si>
+  <si>
+    <t>Entering Assignments Location Fields</t>
+  </si>
+  <si>
+    <t>Entering Assignments Location Fields - Success</t>
+  </si>
+  <si>
+    <t>Log_EnterAssignmentsLocationFieldsSuccess</t>
+  </si>
+  <si>
+    <t>Log_ExtractReferenceNumbers</t>
+  </si>
+  <si>
+    <t>Extracting Reference Numbers</t>
+  </si>
+  <si>
+    <t>Log_ExtractReferenceNumbersSuccess</t>
+  </si>
+  <si>
+    <t>Extracting Reference Numbers - Success</t>
+  </si>
+  <si>
+    <t>Log_SuccessUpdateBotStatus</t>
+  </si>
+  <si>
+    <t>Log_BREUpdateBotStatus</t>
+  </si>
+  <si>
+    <t>Log_SEUpdateBotStatus</t>
+  </si>
+  <si>
+    <t>Updating Bot Status for Success Transaction</t>
+  </si>
+  <si>
+    <t>Updating Bot Status for BRE Transaction</t>
+  </si>
+  <si>
+    <t>Updating Bot Status for SE Transaction</t>
+  </si>
+  <si>
+    <t>SE_ErrMsg_FindAssetsWindowNotDisplayed</t>
+  </si>
+  <si>
+    <t>Input form closed</t>
+  </si>
+  <si>
+    <t>Find Assets Window Not Displayed</t>
+  </si>
+  <si>
+    <t>DOL Fixed Assets Responsibility Not Displayed</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1363,6 +1408,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16409"/>
+  <dimension ref="A1:Z16414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1735,7 +1782,7 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1821,28 +1868,28 @@
         <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>3</v>
@@ -1851,178 +1898,178 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
@@ -2043,10 +2090,10 @@
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
@@ -2083,10 +2130,10 @@
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
@@ -2131,66 +2178,66 @@
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
@@ -2199,74 +2246,74 @@
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
@@ -2279,7 +2326,7 @@
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B74" s="2">
         <v>500</v>
@@ -2290,7 +2337,7 @@
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B75" s="2">
         <v>500</v>
@@ -2301,7 +2348,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
@@ -2312,7 +2359,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B77" s="2">
         <v>500</v>
@@ -2323,7 +2370,7 @@
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B78" s="2">
         <v>500</v>
@@ -2334,7 +2381,7 @@
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2">
         <v>500</v>
@@ -2345,7 +2392,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
@@ -2356,7 +2403,7 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B81" s="2">
         <v>500</v>
@@ -2481,7 +2528,7 @@
         <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1">
@@ -2598,18 +2645,18 @@
     </row>
     <row r="117" spans="1:2" ht="14.5">
       <c r="A117" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.5">
       <c r="A118" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B118" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" customHeight="1">
@@ -2630,18 +2677,18 @@
     </row>
     <row r="121" spans="1:2" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.5">
@@ -2662,331 +2709,339 @@
     </row>
     <row r="125" spans="1:2" ht="14.5">
       <c r="A125" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
         <v>260</v>
-      </c>
-      <c r="B125" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.5">
       <c r="A126" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.5">
       <c r="A127" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
         <v>264</v>
-      </c>
-      <c r="B127" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.5">
       <c r="A128" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.5">
       <c r="A129" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.5">
       <c r="A130" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B130" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.5">
       <c r="A131" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B131" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.5">
       <c r="A132" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.5">
       <c r="A133" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B133" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.5">
       <c r="A134" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B134" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.5">
       <c r="A135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B135" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14.5">
+      <c r="A136" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14.5">
+      <c r="A137" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B137" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.5">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" ht="14.5">
-      <c r="A137" s="2"/>
-    </row>
     <row r="138" spans="1:2" ht="14.5">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A140" t="s">
+      <c r="A138" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14.5">
+      <c r="A139" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B139" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14.5">
+      <c r="A140" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B140" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14.5">
+      <c r="A141" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.5">
+      <c r="A142" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B142" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14.5">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A145" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B145" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A146" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A141" t="s">
-        <v>92</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="147" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A147" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="148" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A148" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A143" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="149" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A149" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A144" t="s">
-        <v>105</v>
-      </c>
-      <c r="B144" s="2" t="s">
+    <row r="150" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A150" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A145" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B145" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A146" t="s">
-        <v>292</v>
-      </c>
-      <c r="B146" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A147" t="s">
+    <row r="151" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A151" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A152" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B147" s="8"/>
-    </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A150" t="s">
+      <c r="B152" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A155" t="s">
         <v>69</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B155" s="5">
         <v>2000</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C155" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A151" t="s">
-        <v>70</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A152" t="s">
-        <v>72</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A153" t="s">
-        <v>98</v>
-      </c>
-      <c r="B153" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="14.5">
-      <c r="A154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B154" s="5">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="156" spans="1:3" ht="14.25" customHeight="1">
       <c r="A156" t="s">
-        <v>90</v>
-      </c>
-      <c r="B156" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>70</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1">
       <c r="A158" t="s">
-        <v>106</v>
-      </c>
-      <c r="B158" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="14.25" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="B158" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.5">
       <c r="A159" t="s">
-        <v>94</v>
-      </c>
-      <c r="B159" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="B159" s="5">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="161" spans="1:3" ht="14.25" customHeight="1">
       <c r="A161" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A162" t="s">
-        <v>114</v>
-      </c>
-      <c r="B162" t="s">
-        <v>116</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="163" spans="1:3" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1">
       <c r="A164" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B164" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="B166" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1">
       <c r="A167" t="s">
-        <v>112</v>
-      </c>
-      <c r="B167">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="B167" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1">
       <c r="A168" t="s">
-        <v>113</v>
-      </c>
-      <c r="B168">
-        <v>40000</v>
-      </c>
-      <c r="C168" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="B168" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B169" s="5"/>
-    </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A170" t="s">
-        <v>103</v>
-      </c>
-      <c r="B170">
-        <v>30000</v>
-      </c>
-      <c r="C170" t="s">
-        <v>71</v>
-      </c>
-    </row>
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B169" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="171" spans="1:3" ht="14.25" customHeight="1">
       <c r="A171" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="B171">
-        <v>30000</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>71</v>
@@ -2994,197 +3049,186 @@
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1">
       <c r="A172" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B172">
-        <v>60000</v>
-      </c>
-      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A173" t="s">
+        <v>113</v>
+      </c>
+      <c r="B173">
+        <v>40000</v>
+      </c>
+      <c r="C173" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B173" s="5"/>
-    </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A174" t="s">
-        <v>73</v>
-      </c>
-      <c r="B174">
-        <v>2000</v>
-      </c>
-      <c r="C174" t="s">
-        <v>71</v>
-      </c>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1">
       <c r="A175" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B175">
-        <v>10</v>
+        <v>30000</v>
+      </c>
+      <c r="C175" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1">
       <c r="A176" t="s">
+        <v>100</v>
+      </c>
+      <c r="B176">
+        <v>30000</v>
+      </c>
+      <c r="C176" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A177" t="s">
+        <v>104</v>
+      </c>
+      <c r="B177">
+        <v>60000</v>
+      </c>
+      <c r="C177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A179" t="s">
+        <v>73</v>
+      </c>
+      <c r="B179">
+        <v>2000</v>
+      </c>
+      <c r="C179" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A180" t="s">
+        <v>75</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A181" t="s">
         <v>76</v>
       </c>
-      <c r="B176">
+      <c r="B181">
         <v>1</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C181" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A178" t="s">
+    <row r="183" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A183" t="s">
         <v>74</v>
       </c>
-      <c r="B178">
+      <c r="B183">
         <v>2000</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C183" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A179" t="s">
+    <row r="184" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A184" t="s">
         <v>77</v>
       </c>
-      <c r="B179">
+      <c r="B184">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A180" t="s">
+    <row r="185" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A185" t="s">
         <v>78</v>
       </c>
-      <c r="B180">
+      <c r="B185">
         <v>1</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C185" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="182" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A182" t="s">
+    <row r="186" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A187" t="s">
         <v>144</v>
       </c>
-      <c r="B182">
+      <c r="B187">
         <v>3000</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C187" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="184" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A184" t="s">
-        <v>118</v>
-      </c>
-      <c r="B184" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="14" customHeight="1">
-      <c r="B185" s="5"/>
-    </row>
-    <row r="186" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A186" t="s">
-        <v>119</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A188" t="s">
-        <v>128</v>
-      </c>
-      <c r="B188">
-        <v>60000</v>
-      </c>
-      <c r="C188" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="189" spans="1:3" ht="14.25" customHeight="1">
       <c r="A189" t="s">
-        <v>127</v>
-      </c>
-      <c r="B189">
+        <v>118</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14" customHeight="1">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A191" t="s">
+        <v>119</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A193" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193">
         <v>60000</v>
-      </c>
-      <c r="C189" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16" customHeight="1">
-      <c r="A190" t="s">
-        <v>129</v>
-      </c>
-      <c r="B190">
-        <v>60000</v>
-      </c>
-      <c r="C190" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A191" t="s">
-        <v>251</v>
-      </c>
-      <c r="B191">
-        <v>100</v>
-      </c>
-      <c r="C191" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A192" t="s">
-        <v>254</v>
-      </c>
-      <c r="B192">
-        <v>100</v>
-      </c>
-      <c r="C192" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A193" t="s">
-        <v>255</v>
-      </c>
-      <c r="B193">
-        <v>100</v>
       </c>
       <c r="C193" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.5" customHeight="1">
+    <row r="194" spans="1:3" ht="14.25" customHeight="1">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="B194">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="C194" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14.5" customHeight="1">
+    <row r="195" spans="1:3" ht="16" customHeight="1">
       <c r="A195" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="B195">
-        <v>100</v>
+        <v>60000</v>
       </c>
       <c r="C195" t="s">
         <v>71</v>
@@ -3192,7 +3236,7 @@
     </row>
     <row r="196" spans="1:3" ht="14.5" customHeight="1">
       <c r="A196" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B196">
         <v>100</v>
@@ -3203,7 +3247,7 @@
     </row>
     <row r="197" spans="1:3" ht="14.5" customHeight="1">
       <c r="A197" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B197">
         <v>100</v>
@@ -3214,7 +3258,7 @@
     </row>
     <row r="198" spans="1:3" ht="14.5" customHeight="1">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B198">
         <v>100</v>
@@ -3223,31 +3267,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1">
+    <row r="199" spans="1:3" ht="14.5" customHeight="1">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B199">
         <v>100</v>
       </c>
       <c r="C199" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.5" customHeight="1">
       <c r="A200" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="B200">
         <v>100</v>
       </c>
       <c r="C200" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.5" customHeight="1">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="B201">
         <v>100</v>
@@ -3258,7 +3302,7 @@
     </row>
     <row r="202" spans="1:3" ht="14.5" customHeight="1">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B202">
         <v>100</v>
@@ -3269,7 +3313,7 @@
     </row>
     <row r="203" spans="1:3" ht="14.5" customHeight="1">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="B203">
         <v>100</v>
@@ -3278,31 +3322,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14.5" customHeight="1">
+    <row r="204" spans="1:3" ht="15" customHeight="1">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="B204">
         <v>100</v>
       </c>
       <c r="C204" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.5" customHeight="1">
       <c r="A205" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B205">
         <v>100</v>
       </c>
       <c r="C205" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.5" customHeight="1">
       <c r="A206" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -3313,7 +3357,7 @@
     </row>
     <row r="207" spans="1:3" ht="14.5" customHeight="1">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B207">
         <v>100</v>
@@ -3324,7 +3368,7 @@
     </row>
     <row r="208" spans="1:3" ht="14.5" customHeight="1">
       <c r="A208" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B208">
         <v>100</v>
@@ -3335,7 +3379,7 @@
     </row>
     <row r="209" spans="1:3" ht="14.5" customHeight="1">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B209">
         <v>100</v>
@@ -3344,262 +3388,278 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="211" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="210" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A210" t="s">
+        <v>182</v>
+      </c>
+      <c r="B210">
+        <v>100</v>
+      </c>
+      <c r="C210" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A211" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211">
+        <v>100</v>
+      </c>
+      <c r="C211" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="212" spans="1:3" ht="14.5" customHeight="1">
       <c r="A212" t="s">
-        <v>170</v>
-      </c>
-      <c r="B212" t="s">
-        <v>171</v>
+        <v>188</v>
+      </c>
+      <c r="B212">
+        <v>100</v>
+      </c>
+      <c r="C212" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.5" customHeight="1">
       <c r="A213" t="s">
-        <v>174</v>
-      </c>
-      <c r="B213" t="s">
-        <v>175</v>
+        <v>191</v>
+      </c>
+      <c r="B213">
+        <v>100</v>
+      </c>
+      <c r="C213" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.5" customHeight="1">
       <c r="A214" t="s">
-        <v>177</v>
-      </c>
-      <c r="B214" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A215" t="s">
-        <v>180</v>
-      </c>
-      <c r="B215" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A216" t="s">
-        <v>183</v>
-      </c>
-      <c r="B216" t="s">
-        <v>184</v>
-      </c>
-    </row>
+        <v>194</v>
+      </c>
+      <c r="B214">
+        <v>100</v>
+      </c>
+      <c r="C214" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="216" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="217" spans="1:3" ht="14.5" customHeight="1">
       <c r="A217" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B217" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.5" customHeight="1">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.5" customHeight="1">
       <c r="A219" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B219" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.5" customHeight="1">
       <c r="A220" t="s">
+        <v>180</v>
+      </c>
+      <c r="B220" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A221" t="s">
+        <v>183</v>
+      </c>
+      <c r="B221" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A222" t="s">
+        <v>186</v>
+      </c>
+      <c r="B222" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A223" t="s">
+        <v>189</v>
+      </c>
+      <c r="B223" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A224" t="s">
+        <v>192</v>
+      </c>
+      <c r="B224" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A225" t="s">
         <v>195</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B225" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.5" customHeight="1">
-      <c r="A221" t="s">
+    <row r="226" spans="1:2" ht="15.5" customHeight="1">
+      <c r="A226" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226" t="s">
         <v>252</v>
       </c>
-      <c r="B221" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A222" t="s">
+    </row>
+    <row r="227" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A227" t="s">
+        <v>244</v>
+      </c>
+      <c r="B227" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="16" customHeight="1">
+      <c r="A228" t="s">
         <v>245</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B228" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="16" customHeight="1">
+      <c r="A229" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="16" customHeight="1">
-      <c r="A223" t="s">
-        <v>246</v>
-      </c>
-      <c r="B223" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="16" customHeight="1">
-      <c r="A224" t="s">
+      <c r="B229" t="s">
         <v>249</v>
       </c>
-      <c r="B224" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="16" customHeight="1">
-      <c r="A225" t="s">
+    </row>
+    <row r="230" spans="1:2" ht="16" customHeight="1">
+      <c r="A230" t="s">
+        <v>266</v>
+      </c>
+      <c r="B230" t="s">
         <v>267</v>
       </c>
-      <c r="B225" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="227" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="228" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A228" t="s">
+    </row>
+    <row r="231" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="232" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="233" spans="1:2" ht="17.5" customHeight="1">
+      <c r="A233" t="s">
         <v>136</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B233" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14.5"/>
-    <row r="230" spans="1:3" ht="14.5">
-      <c r="A230" t="s">
+    <row r="234" spans="1:2" ht="14.5"/>
+    <row r="235" spans="1:2" ht="14.5">
+      <c r="A235" t="s">
         <v>49</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B235" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14.5">
-      <c r="A231" t="s">
+    <row r="236" spans="1:2" ht="14.5">
+      <c r="A236" t="s">
         <v>50</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B236" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14.5">
-      <c r="A232" t="s">
+    <row r="237" spans="1:2" ht="14.5">
+      <c r="A237" t="s">
         <v>53</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B237" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14.5">
-      <c r="A233" t="s">
+    <row r="238" spans="1:2" ht="14.5">
+      <c r="A238" t="s">
         <v>55</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B238" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14.5"/>
-    <row r="235" spans="1:3" ht="14.5">
-      <c r="A235" t="s">
+    <row r="239" spans="1:2" ht="14.5"/>
+    <row r="240" spans="1:2" ht="14.5">
+      <c r="A240" t="s">
         <v>56</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B240" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14.5">
-      <c r="A236" t="s">
+    <row r="241" spans="1:3" ht="14.5">
+      <c r="A241" t="s">
         <v>58</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B241" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A237" t="s">
+    <row r="242" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A242" t="s">
         <v>59</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B242" s="5">
         <v>60</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C242" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="239" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A239" t="s">
-        <v>56</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A240" t="s">
-        <v>58</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A241" t="s">
-        <v>59</v>
-      </c>
-      <c r="B241" s="5">
-        <v>60</v>
-      </c>
-      <c r="C241" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A243" t="s">
-        <v>130</v>
-      </c>
-      <c r="B243" t="s">
-        <v>160</v>
-      </c>
-      <c r="C243" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="244" spans="1:3" ht="14.25" customHeight="1">
       <c r="A244" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>382</v>
+        <v>57</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1">
       <c r="A245" t="s">
-        <v>45</v>
-      </c>
-      <c r="C245" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1">
       <c r="A246" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B246" s="5">
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="248" spans="1:3" ht="14.25" customHeight="1">
       <c r="A248" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B248" t="s">
         <v>160</v>
@@ -3610,211 +3670,235 @@
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1">
       <c r="A249" t="s">
+        <v>131</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="C250" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A251" t="s">
+        <v>46</v>
+      </c>
+      <c r="B251" s="5">
+        <v>60000</v>
+      </c>
+      <c r="C251" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A253" t="s">
+        <v>132</v>
+      </c>
+      <c r="B253" t="s">
+        <v>160</v>
+      </c>
+      <c r="C253" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A254" t="s">
         <v>133</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="14" customHeight="1">
-      <c r="A250" t="s">
-        <v>134</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="14" customHeight="1">
-      <c r="A252" t="s">
-        <v>236</v>
-      </c>
-      <c r="B252">
-        <v>10</v>
-      </c>
-      <c r="C252" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="14" customHeight="1">
-      <c r="A253" t="s">
-        <v>237</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="14" customHeight="1">
-      <c r="A254" t="s">
-        <v>238</v>
-      </c>
-      <c r="B254">
-        <v>10</v>
-      </c>
-      <c r="C254" t="s">
-        <v>240</v>
+      <c r="B254" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14" customHeight="1">
       <c r="A255" t="s">
+        <v>134</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14" customHeight="1">
+      <c r="A257" t="s">
+        <v>236</v>
+      </c>
+      <c r="B257">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14" customHeight="1">
+      <c r="A258" t="s">
+        <v>237</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14" customHeight="1">
+      <c r="A259" t="s">
+        <v>238</v>
+      </c>
+      <c r="B259">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14" customHeight="1">
+      <c r="A260" t="s">
         <v>239</v>
       </c>
-      <c r="B255">
+      <c r="B260">
         <v>1</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C260" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A257" t="s">
-        <v>272</v>
-      </c>
-      <c r="B257" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A258" t="s">
-        <v>271</v>
-      </c>
-      <c r="B258" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="14" customHeight="1"/>
-    <row r="260" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A261" t="s">
-        <v>273</v>
-      </c>
-      <c r="B261">
-        <v>100</v>
-      </c>
-      <c r="C261" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="262" spans="1:3" ht="14.25" customHeight="1">
       <c r="A262" t="s">
-        <v>276</v>
-      </c>
-      <c r="B262">
-        <v>100</v>
-      </c>
-      <c r="C262" t="s">
-        <v>71</v>
+        <v>271</v>
+      </c>
+      <c r="B262" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1">
       <c r="A263" t="s">
-        <v>281</v>
-      </c>
-      <c r="B263">
-        <v>100</v>
-      </c>
-      <c r="C263" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A264" t="s">
-        <v>284</v>
-      </c>
-      <c r="B264">
-        <v>100</v>
-      </c>
-      <c r="C264" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A265" t="s">
-        <v>289</v>
-      </c>
-      <c r="B265">
-        <v>100</v>
-      </c>
-      <c r="C265" t="s">
-        <v>71</v>
-      </c>
-    </row>
+        <v>270</v>
+      </c>
+      <c r="B263" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14" customHeight="1"/>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="266" spans="1:3" ht="14.25" customHeight="1">
       <c r="A266" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="B266">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C266" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1">
+    <row r="267" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267">
+        <v>100</v>
+      </c>
+      <c r="C267" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A268" t="s">
+        <v>280</v>
+      </c>
+      <c r="B268">
+        <v>100</v>
+      </c>
+      <c r="C268" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="14.25" customHeight="1">
       <c r="A269" t="s">
+        <v>283</v>
+      </c>
+      <c r="B269">
+        <v>100</v>
+      </c>
+      <c r="C269" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A270" t="s">
+        <v>288</v>
+      </c>
+      <c r="B270">
+        <v>100</v>
+      </c>
+      <c r="C270" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A271" t="s">
+        <v>391</v>
+      </c>
+      <c r="B271">
+        <v>500</v>
+      </c>
+      <c r="C271" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" customHeight="1">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B269" s="5" t="s">
+    </row>
+    <row r="275" spans="1:2" ht="15" customHeight="1">
+      <c r="A275" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1">
-      <c r="A270" t="s">
+      <c r="B275" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="15" customHeight="1">
-      <c r="A271" t="s">
-        <v>283</v>
-      </c>
-      <c r="B271" s="5" t="s">
+    </row>
+    <row r="276" spans="1:2" ht="15" customHeight="1">
+      <c r="A276" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="15" customHeight="1">
-      <c r="A272" t="s">
+      <c r="B276" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15" customHeight="1">
+      <c r="A277" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B272" s="5" t="s">
+    </row>
+    <row r="278" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A273" t="s">
-        <v>285</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A274" t="s">
+    <row r="279" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A279" t="s">
+        <v>289</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B275" s="8"/>
-    </row>
-    <row r="276" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B276" s="8"/>
-    </row>
-    <row r="277" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B277" s="8"/>
-    </row>
-    <row r="278" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B278" s="8"/>
-    </row>
-    <row r="279" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B279" s="8"/>
     </row>
     <row r="280" spans="1:2" ht="14.25" customHeight="1">
       <c r="B280" s="8"/>
@@ -6354,19 +6438,19 @@
     <row r="1125" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1125" s="8"/>
     </row>
-    <row r="1126" spans="2:2" ht="15" customHeight="1">
+    <row r="1126" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1126" s="8"/>
     </row>
-    <row r="1127" spans="2:2" ht="15" customHeight="1">
+    <row r="1127" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1127" s="8"/>
     </row>
-    <row r="1128" spans="2:2" ht="15" customHeight="1">
+    <row r="1128" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1128" s="8"/>
     </row>
-    <row r="1129" spans="2:2" ht="15" customHeight="1">
+    <row r="1129" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1129" s="8"/>
     </row>
-    <row r="1130" spans="2:2" ht="15" customHeight="1">
+    <row r="1130" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1130" s="8"/>
     </row>
     <row r="1131" spans="2:2" ht="15" customHeight="1">
@@ -52205,6 +52289,21 @@
     </row>
     <row r="16409" spans="2:2" ht="15" customHeight="1">
       <c r="B16409" s="8"/>
+    </row>
+    <row r="16410" spans="2:2" ht="15" customHeight="1">
+      <c r="B16410" s="8"/>
+    </row>
+    <row r="16411" spans="2:2" ht="15" customHeight="1">
+      <c r="B16411" s="8"/>
+    </row>
+    <row r="16412" spans="2:2" ht="15" customHeight="1">
+      <c r="B16412" s="8"/>
+    </row>
+    <row r="16413" spans="2:2" ht="15" customHeight="1">
+      <c r="B16413" s="8"/>
+    </row>
+    <row r="16414" spans="2:2" ht="15" customHeight="1">
+      <c r="B16414" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -52228,17 +52327,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -52248,112 +52347,112 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -52368,7 +52467,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -52393,7 +52492,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -52423,42 +52522,42 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -52659,7 +52758,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\AssetsCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0CB87-A54F-4BF4-9A5D-6723C0B05A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D053514-BD73-4374-A5B0-8B902476E338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Columns" sheetId="4" r:id="rId2"/>
-    <sheet name="Constants" sheetId="2" r:id="rId3"/>
-    <sheet name="Assets" sheetId="3" r:id="rId4"/>
+    <sheet name="Constants" sheetId="2" r:id="rId2"/>
+    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Columns" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="438">
   <si>
     <t>Name</t>
   </si>
@@ -1328,6 +1328,18 @@
   <si>
     <t>DOL Fixed Assets Responsibility Not Displayed</t>
   </si>
+  <si>
+    <t>RetryNum_TypeAssetNumber</t>
+  </si>
+  <si>
+    <t>RetryInterval_TypeAssetNumber</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
@@ -1386,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1408,8 +1420,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1724,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16414"/>
+  <dimension ref="A1:Z16413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1842,502 +1852,510 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.5">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
+    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>382</v>
+        <v>293</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>314</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>300</v>
+        <v>197</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>197</v>
+      <c r="A41" t="s">
+        <v>208</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>208</v>
+      <c r="A42" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>292</v>
+      <c r="A43" t="s">
+        <v>212</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>301</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>273</v>
+      <c r="A54" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>388</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B73" s="2">
+        <v>500</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B74" s="2">
         <v>500</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B75" s="2">
         <v>500</v>
@@ -2348,7 +2366,7 @@
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
@@ -2359,7 +2377,7 @@
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B77" s="2">
         <v>500</v>
@@ -2370,7 +2388,7 @@
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B78" s="2">
         <v>500</v>
@@ -2379,9 +2397,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+    <row r="79" spans="1:3" ht="17" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B79" s="2">
         <v>500</v>
@@ -2390,9 +2408,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" customHeight="1">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
@@ -2401,677 +2419,677 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B81" s="2">
-        <v>500</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+    <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="1:3" ht="14.5">
+    <row r="84" spans="1:2" ht="14.5">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" customHeight="1">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.5">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.5">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.5">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.5">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.5">
-      <c r="A90" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1">
+    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1">
+    <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A96" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
+    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
         <v>165</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B97" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" customHeight="1">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B101" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1">
-      <c r="A102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A104" s="2" t="s">
+    <row r="103" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A103" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.5">
+      <c r="A104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.5">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.5">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.5">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.5">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.5">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.5">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.5">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.5">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.5">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.5">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.5">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.5">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.5">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="14.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.25" customHeight="1">
       <c r="A118" t="s">
-        <v>394</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" customHeight="1">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" customHeight="1">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A122" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.5">
+      <c r="A122" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.5">
       <c r="A123" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.5">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.5">
       <c r="A125" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.5">
       <c r="A126" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.5">
       <c r="A127" s="2" t="s">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.5">
       <c r="A128" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B128" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.5">
       <c r="A129" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.5">
       <c r="A130" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.5">
       <c r="A131" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B131" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.5">
       <c r="A132" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B132" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.5">
       <c r="A133" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B133" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.5">
       <c r="A134" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.5">
       <c r="A135" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B135" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.5">
       <c r="A136" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.5">
       <c r="A137" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B137" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.5">
       <c r="A138" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.5">
       <c r="A139" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.5">
       <c r="A140" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.5">
       <c r="A141" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B141" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.5">
-      <c r="A142" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B142" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="14.5">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" ht="14.25" customHeight="1">
       <c r="A143" s="2"/>
     </row>
     <row r="144" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A145" s="11" t="s">
+      <c r="A144" t="s">
         <v>87</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B144" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A146" s="11" t="s">
+    <row r="145" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A145" t="s">
         <v>92</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B145" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A147" s="11" t="s">
+    <row r="146" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A146" t="s">
         <v>88</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B146" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A148" s="11" t="s">
+    <row r="147" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A147" t="s">
         <v>101</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B147" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A149" s="11" t="s">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A148" t="s">
         <v>105</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B148" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A150" s="12" t="s">
+    <row r="149" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A149" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B149" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A151" s="11" t="s">
+    <row r="150" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A150" t="s">
         <v>430</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B150" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A152" s="11" t="s">
+    <row r="151" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A151" t="s">
         <v>243</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B151" t="s">
         <v>433</v>
       </c>
     </row>
+    <row r="152" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B152" s="8"/>
+    </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B153" s="8"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A154" s="2"/>
+      <c r="A154" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C154" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1">
       <c r="A155" t="s">
-        <v>69</v>
-      </c>
-      <c r="B155" s="5">
-        <v>2000</v>
+        <v>70</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1">
       <c r="A156" t="s">
-        <v>70</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1">
       <c r="A157" t="s">
-        <v>72</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="14.25" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="B157" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.5">
       <c r="A158" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B158" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="14.5">
-      <c r="A159" t="s">
-        <v>99</v>
-      </c>
-      <c r="B159" s="5">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="C158" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="161" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A161" t="s">
+    <row r="159" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A160" t="s">
         <v>90</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B160" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="161" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="162" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1">
       <c r="A163" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A164" t="s">
-        <v>94</v>
-      </c>
-      <c r="B164" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B165" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B166" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1">
       <c r="A167" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B167" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1">
       <c r="A168" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B168" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A169" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A170" t="s">
+        <v>235</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="B171">
-        <v>5</v>
-      </c>
-      <c r="C171" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1">
       <c r="A172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>40000</v>
+      </c>
+      <c r="C172" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A173" t="s">
-        <v>113</v>
-      </c>
-      <c r="B173">
-        <v>40000</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174">
+        <v>30000</v>
+      </c>
+      <c r="C174" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1">
       <c r="A175" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>30000</v>
@@ -3082,128 +3100,128 @@
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1">
       <c r="A176" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B176">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C176" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A177" t="s">
-        <v>104</v>
-      </c>
-      <c r="B177">
-        <v>60000</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A178" t="s">
+        <v>73</v>
+      </c>
+      <c r="B178">
+        <v>2000</v>
+      </c>
+      <c r="C178" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1">
       <c r="A179" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B179">
-        <v>2000</v>
-      </c>
-      <c r="C179" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A182" t="s">
+        <v>74</v>
+      </c>
+      <c r="B182">
+        <v>2000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B183">
         <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A181" t="s">
-        <v>76</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A183" t="s">
-        <v>74</v>
-      </c>
-      <c r="B183">
-        <v>2000</v>
-      </c>
-      <c r="C183" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17.5" customHeight="1">
       <c r="A184" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B184">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A185" t="s">
-        <v>78</v>
-      </c>
-      <c r="B185">
         <v>1</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C184" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A187" t="s">
+    <row r="185" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A186" t="s">
         <v>144</v>
       </c>
-      <c r="B187">
+      <c r="B186">
         <v>3000</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="189" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A189" t="s">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A188" t="s">
         <v>118</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B188" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14" customHeight="1">
-      <c r="B190" s="5"/>
-    </row>
-    <row r="191" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A191" t="s">
+    <row r="189" spans="1:3" ht="14" customHeight="1">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A190" t="s">
         <v>119</v>
       </c>
-      <c r="B191">
+      <c r="B190">
         <v>1</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C190" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A192" t="s">
+        <v>128</v>
+      </c>
+      <c r="B192">
+        <v>60000</v>
+      </c>
+      <c r="C192" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1">
       <c r="A193" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B193">
         <v>60000</v>
@@ -3212,9 +3230,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14.25" customHeight="1">
+    <row r="194" spans="1:3" ht="16" customHeight="1">
       <c r="A194" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B194">
         <v>60000</v>
@@ -3223,12 +3241,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16" customHeight="1">
+    <row r="195" spans="1:3" ht="14.5" customHeight="1">
       <c r="A195" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="B195">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="C195" t="s">
         <v>71</v>
@@ -3236,7 +3254,7 @@
     </row>
     <row r="196" spans="1:3" ht="14.5" customHeight="1">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B196">
         <v>100</v>
@@ -3247,7 +3265,7 @@
     </row>
     <row r="197" spans="1:3" ht="14.5" customHeight="1">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B197">
         <v>100</v>
@@ -3258,7 +3276,7 @@
     </row>
     <row r="198" spans="1:3" ht="14.5" customHeight="1">
       <c r="A198" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B198">
         <v>100</v>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="199" spans="1:3" ht="14.5" customHeight="1">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B199">
         <v>100</v>
@@ -3280,7 +3298,7 @@
     </row>
     <row r="200" spans="1:3" ht="14.5" customHeight="1">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B200">
         <v>100</v>
@@ -3291,7 +3309,7 @@
     </row>
     <row r="201" spans="1:3" ht="14.5" customHeight="1">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B201">
         <v>100</v>
@@ -3302,7 +3320,7 @@
     </row>
     <row r="202" spans="1:3" ht="14.5" customHeight="1">
       <c r="A202" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B202">
         <v>100</v>
@@ -3311,20 +3329,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="14.5" customHeight="1">
+    <row r="203" spans="1:3" ht="15" customHeight="1">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B203">
         <v>100</v>
       </c>
       <c r="C203" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.5" customHeight="1">
       <c r="A204" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B204">
         <v>100</v>
@@ -3335,18 +3353,18 @@
     </row>
     <row r="205" spans="1:3" ht="14.5" customHeight="1">
       <c r="A205" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B205">
         <v>100</v>
       </c>
       <c r="C205" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.5" customHeight="1">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -3357,7 +3375,7 @@
     </row>
     <row r="207" spans="1:3" ht="14.5" customHeight="1">
       <c r="A207" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B207">
         <v>100</v>
@@ -3368,7 +3386,7 @@
     </row>
     <row r="208" spans="1:3" ht="14.5" customHeight="1">
       <c r="A208" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B208">
         <v>100</v>
@@ -3379,7 +3397,7 @@
     </row>
     <row r="209" spans="1:3" ht="14.5" customHeight="1">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B209">
         <v>100</v>
@@ -3390,7 +3408,7 @@
     </row>
     <row r="210" spans="1:3" ht="14.5" customHeight="1">
       <c r="A210" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B210">
         <v>100</v>
@@ -3401,7 +3419,7 @@
     </row>
     <row r="211" spans="1:3" ht="14.5" customHeight="1">
       <c r="A211" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B211">
         <v>100</v>
@@ -3412,7 +3430,7 @@
     </row>
     <row r="212" spans="1:3" ht="14.5" customHeight="1">
       <c r="A212" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B212">
         <v>100</v>
@@ -3423,7 +3441,7 @@
     </row>
     <row r="213" spans="1:3" ht="14.5" customHeight="1">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B213">
         <v>100</v>
@@ -3432,363 +3450,363 @@
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A214" t="s">
-        <v>194</v>
-      </c>
-      <c r="B214">
-        <v>100</v>
-      </c>
-      <c r="C214" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="214" spans="1:3" ht="14.5" customHeight="1"/>
     <row r="215" spans="1:3" ht="14.5" customHeight="1"/>
-    <row r="216" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="216" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A216" t="s">
+        <v>170</v>
+      </c>
+      <c r="B216" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="217" spans="1:3" ht="14.5" customHeight="1">
       <c r="A217" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B217" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.5" customHeight="1">
       <c r="A218" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B218" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.5" customHeight="1">
       <c r="A219" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B219" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.5" customHeight="1">
       <c r="A220" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B220" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.5" customHeight="1">
       <c r="A221" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B221" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.5" customHeight="1">
       <c r="A222" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B222" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.5" customHeight="1">
       <c r="A223" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B223" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.5" customHeight="1">
       <c r="A224" t="s">
-        <v>192</v>
-      </c>
-      <c r="B224" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="14.5" customHeight="1">
+        <v>195</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.5" customHeight="1">
       <c r="A225" t="s">
-        <v>195</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.5" customHeight="1">
+        <v>251</v>
+      </c>
+      <c r="B225" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="13.5" customHeight="1">
       <c r="A226" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B226" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="13.5" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="16" customHeight="1">
       <c r="A227" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="16" customHeight="1">
       <c r="A228" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B228" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="16" customHeight="1">
       <c r="A229" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="16" customHeight="1">
-      <c r="A230" t="s">
-        <v>266</v>
-      </c>
-      <c r="B230" t="s">
         <v>267</v>
       </c>
     </row>
+    <row r="230" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="231" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="232" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="233" spans="1:2" ht="17.5" customHeight="1">
-      <c r="A233" t="s">
+    <row r="232" spans="1:2" ht="17.5" customHeight="1">
+      <c r="A232" t="s">
         <v>136</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B232" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.5"/>
+    <row r="233" spans="1:2" ht="14.5"/>
+    <row r="234" spans="1:2" ht="14.5">
+      <c r="A234" t="s">
+        <v>49</v>
+      </c>
+      <c r="B234" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="235" spans="1:2" ht="14.5">
       <c r="A235" t="s">
-        <v>49</v>
-      </c>
-      <c r="B235" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14.5">
       <c r="A236" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14.5">
       <c r="A237" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="14.5">
-      <c r="A238" t="s">
-        <v>55</v>
-      </c>
-      <c r="B238" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="14.5"/>
+    <row r="238" spans="1:2" ht="14.5"/>
+    <row r="239" spans="1:2" ht="14.5">
+      <c r="A239" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="240" spans="1:2" ht="14.5">
       <c r="A240" t="s">
+        <v>58</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A241" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" s="5">
+        <v>60</v>
+      </c>
+      <c r="C241" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A243" t="s">
         <v>56</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B243" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14.5">
-      <c r="A241" t="s">
-        <v>58</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A242" t="s">
-        <v>59</v>
-      </c>
-      <c r="B242" s="5">
-        <v>60</v>
-      </c>
-      <c r="C242" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="244" spans="1:3" ht="14.25" customHeight="1">
       <c r="A244" t="s">
-        <v>56</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1">
       <c r="A245" t="s">
-        <v>58</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A246" t="s">
         <v>59</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B245" s="5">
         <v>60</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C245" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="247" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A247" t="s">
+        <v>130</v>
+      </c>
+      <c r="B247" t="s">
+        <v>160</v>
+      </c>
+      <c r="C247" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1">
       <c r="A248" t="s">
-        <v>130</v>
-      </c>
-      <c r="B248" t="s">
-        <v>160</v>
-      </c>
-      <c r="C248" t="s">
-        <v>44</v>
+        <v>131</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1">
       <c r="A249" t="s">
-        <v>131</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>379</v>
+        <v>45</v>
+      </c>
+      <c r="C249" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B250" s="5">
+        <v>60000</v>
       </c>
       <c r="C250" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A252" t="s">
+        <v>132</v>
+      </c>
+      <c r="B252" t="s">
+        <v>160</v>
+      </c>
+      <c r="C252" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A251" t="s">
-        <v>46</v>
-      </c>
-      <c r="B251" s="5">
-        <v>60000</v>
-      </c>
-      <c r="C251" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="253" spans="1:3" ht="14.25" customHeight="1">
       <c r="A253" t="s">
-        <v>132</v>
-      </c>
-      <c r="B253" t="s">
-        <v>160</v>
-      </c>
-      <c r="C253" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="14.25" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14" customHeight="1">
       <c r="A254" t="s">
-        <v>133</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="14" customHeight="1">
-      <c r="A255" t="s">
         <v>134</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B254" s="6" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14" customHeight="1">
+      <c r="A256" t="s">
+        <v>236</v>
+      </c>
+      <c r="B256">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14" customHeight="1">
       <c r="A257" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14" customHeight="1">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14" customHeight="1">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B259">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="14" customHeight="1">
-      <c r="A260" t="s">
-        <v>239</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-      <c r="C260" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A261" t="s">
+        <v>271</v>
+      </c>
+      <c r="B261" t="s">
+        <v>268</v>
+      </c>
+    </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A263" t="s">
-        <v>270</v>
-      </c>
-      <c r="B263" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="14" customHeight="1"/>
-    <row r="265" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="263" spans="1:3" ht="14" customHeight="1"/>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+      <c r="C265" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B266">
         <v>100</v>
@@ -3799,7 +3817,7 @@
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1">
       <c r="A267" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B267">
         <v>100</v>
@@ -3810,7 +3828,7 @@
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1">
       <c r="A268" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B268">
         <v>100</v>
@@ -3821,7 +3839,7 @@
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1">
       <c r="A269" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B269">
         <v>100</v>
@@ -3832,79 +3850,81 @@
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1">
       <c r="A270" t="s">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="B270">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C270" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A271" t="s">
-        <v>391</v>
-      </c>
-      <c r="B271">
-        <v>500</v>
-      </c>
-      <c r="C271" t="s">
-        <v>71</v>
+    <row r="273" spans="1:2" ht="15" customHeight="1">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15" customHeight="1">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15" customHeight="1">
       <c r="A275" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15" customHeight="1">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="14.25" customHeight="1">
       <c r="A277" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="14.25" customHeight="1">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A279" t="s">
-        <v>289</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="B279" s="8"/>
     </row>
     <row r="280" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B280" s="8"/>
+      <c r="A280" t="s">
+        <v>434</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="281" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B281" s="8"/>
+      <c r="A281" t="s">
+        <v>435</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="282" spans="1:2" ht="14.25" customHeight="1">
       <c r="B282" s="8"/>
@@ -6450,7 +6470,7 @@
     <row r="1129" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1129" s="8"/>
     </row>
-    <row r="1130" spans="2:2" ht="14.25" customHeight="1">
+    <row r="1130" spans="2:2" ht="15" customHeight="1">
       <c r="B1130" s="8"/>
     </row>
     <row r="1131" spans="2:2" ht="15" customHeight="1">
@@ -52301,9 +52321,6 @@
     </row>
     <row r="16413" spans="2:2" ht="15" customHeight="1">
       <c r="B16413" s="8"/>
-    </row>
-    <row r="16414" spans="2:2" ht="15" customHeight="1">
-      <c r="B16414" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -52313,265 +52330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CA207-C514-463D-8AD4-AD89DA25ADFE}">
-  <dimension ref="A1:A47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -52621,7 +52384,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -53736,7 +53499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -54791,4 +54554,258 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CA207-C514-463D-8AD4-AD89DA25ADFE}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\AssetsCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D053514-BD73-4374-A5B0-8B902476E338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7548B9-338A-4464-B327-BB667162B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z16413"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3246,7 +3246,7 @@
         <v>250</v>
       </c>
       <c r="B195">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C195" t="s">
         <v>71</v>
@@ -3257,7 +3257,7 @@
         <v>253</v>
       </c>
       <c r="B196">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C196" t="s">
         <v>71</v>
@@ -3268,7 +3268,7 @@
         <v>254</v>
       </c>
       <c r="B197">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C197" t="s">
         <v>71</v>
@@ -3279,7 +3279,7 @@
         <v>255</v>
       </c>
       <c r="B198">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C198" t="s">
         <v>71</v>
@@ -3290,7 +3290,7 @@
         <v>256</v>
       </c>
       <c r="B199">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C199" t="s">
         <v>71</v>
@@ -3301,7 +3301,7 @@
         <v>257</v>
       </c>
       <c r="B200">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C200" t="s">
         <v>71</v>
@@ -3312,7 +3312,7 @@
         <v>258</v>
       </c>
       <c r="B201">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C201" t="s">
         <v>71</v>
@@ -3323,7 +3323,7 @@
         <v>234</v>
       </c>
       <c r="B202">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C202" t="s">
         <v>71</v>
@@ -3334,7 +3334,7 @@
         <v>241</v>
       </c>
       <c r="B203">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C203" t="s">
         <v>47</v>
@@ -3345,7 +3345,7 @@
         <v>161</v>
       </c>
       <c r="B204">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C204" t="s">
         <v>47</v>
@@ -3356,7 +3356,7 @@
         <v>173</v>
       </c>
       <c r="B205">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C205" t="s">
         <v>71</v>
@@ -3367,7 +3367,7 @@
         <v>172</v>
       </c>
       <c r="B206">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C206" t="s">
         <v>71</v>
@@ -3378,7 +3378,7 @@
         <v>176</v>
       </c>
       <c r="B207">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C207" t="s">
         <v>71</v>
@@ -3389,7 +3389,7 @@
         <v>179</v>
       </c>
       <c r="B208">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C208" t="s">
         <v>71</v>
@@ -3400,7 +3400,7 @@
         <v>182</v>
       </c>
       <c r="B209">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C209" t="s">
         <v>71</v>
@@ -3411,7 +3411,7 @@
         <v>185</v>
       </c>
       <c r="B210">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C210" t="s">
         <v>71</v>
@@ -3422,7 +3422,7 @@
         <v>188</v>
       </c>
       <c r="B211">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C211" t="s">
         <v>71</v>
@@ -3433,7 +3433,7 @@
         <v>191</v>
       </c>
       <c r="B212">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C212" t="s">
         <v>71</v>
@@ -3444,7 +3444,7 @@
         <v>194</v>
       </c>
       <c r="B213">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C213" t="s">
         <v>71</v>
@@ -54560,7 +54560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5CA207-C514-463D-8AD4-AD89DA25ADFE}">
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\AssetsCreation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7548B9-338A-4464-B327-BB667162B988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764A67B9-DBC1-4EF2-8DBC-CA3A66EC0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="439">
   <si>
     <t>Name</t>
   </si>
@@ -1340,6 +1340,9 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>gmahesh2789@gmail.com; hariharangouri@gmail.com; sunil.melam@gmail.com; anandravul@dataparticle.com; srinivasdasari@dataparticle.com</t>
+  </si>
 </sst>
 </file>
 
@@ -1736,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z16413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3708,7 +3711,7 @@
         <v>132</v>
       </c>
       <c r="B252" t="s">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="C252" t="s">
         <v>44</v>
